--- a/Product.xlsx
+++ b/Product.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\koppo\OneDrive\Desktop\powerbI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KITS\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB2BB52F-EE4A-43C3-990A-9AB00E1182FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13040"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,10 +26,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
   <si>
+    <t>ProductName</t>
+  </si>
+  <si>
     <t>ProductID</t>
-  </si>
-  <si>
-    <t>ProductName</t>
   </si>
   <si>
     <t>Category</t>
@@ -132,8 +131,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,16 +148,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -166,17 +185,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -457,43 +494,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" customWidth="1"/>
-    <col min="2" max="2" width="17.109375" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="5" max="5" width="13.21875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" customWidth="1"/>
+    <col min="2" max="2" width="13.08984375" customWidth="1"/>
+    <col min="3" max="3" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6328125" customWidth="1"/>
+    <col min="5" max="5" width="15.26953125" customWidth="1"/>
+    <col min="6" max="6" width="20.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -513,7 +551,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -533,7 +571,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -553,7 +591,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -573,7 +611,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -593,7 +631,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -613,7 +651,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
@@ -633,7 +671,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
@@ -653,7 +691,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
@@ -673,7 +711,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>32</v>
       </c>
@@ -695,5 +733,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>